--- a/personal/excel/cod_story.xlsx
+++ b/personal/excel/cod_story.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="88" documentId="11_F25DC773A252ABDACC104861C1584D565ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FCC9CD8-C8CC-4C18-A0DC-CD070F0B7192}"/>
   <bookViews>
-    <workbookView xWindow="13230" yWindow="3510" windowWidth="16815" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4065" yWindow="3435" windowWidth="16815" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="系列顺序" sheetId="1" r:id="rId1"/>
@@ -221,6 +221,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -489,7 +493,7 @@
   <dimension ref="A2:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/personal/excel/cod_story.xlsx
+++ b/personal/excel/cod_story.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d2c6fb186291c3cd/github/alll/personal/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="11_F25DC773A252ABDACC104861C1584D565ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FCC9CD8-C8CC-4C18-A0DC-CD070F0B7192}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="11_F25DC773A252ABDACC104861C1584D565ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83E95391-5090-4B4E-BD9D-18FE917A75BE}"/>
   <bookViews>
     <workbookView xWindow="4065" yWindow="3435" windowWidth="16815" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="43">
   <si>
     <t>二战系列：</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>- 个人整理、概率漏/误标、系列排序参考Wiki</t>
+  </si>
+  <si>
+    <t>\n\n</t>
   </si>
 </sst>
 </file>
@@ -493,7 +496,7 @@
   <dimension ref="A2:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,7 +519,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -532,7 +535,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -556,7 +559,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -572,7 +575,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>

--- a/personal/excel/cod_story.xlsx
+++ b/personal/excel/cod_story.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="92" documentId="11_F25DC773A252ABDACC104861C1584D565ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83E95391-5090-4B4E-BD9D-18FE917A75BE}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="3435" windowWidth="16815" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15225" windowHeight="11415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="系列顺序" sheetId="1" r:id="rId1"/>
@@ -495,7 +495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585C0D7B-E3BB-4BC4-B2F7-8E5D50886825}">
   <dimension ref="A2:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
